--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>438.697990548138</v>
+        <v>149.8631109542933</v>
       </c>
       <c r="R2">
-        <v>3948.281914933241</v>
+        <v>1348.76799858864</v>
       </c>
       <c r="S2">
-        <v>0.008685237824015342</v>
+        <v>0.003025289350731184</v>
       </c>
       <c r="T2">
-        <v>0.008685237824015342</v>
+        <v>0.003025289350731185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>14315.46316883425</v>
+        <v>17756.87007366858</v>
       </c>
       <c r="R3">
-        <v>128839.1685195082</v>
+        <v>159811.8306630172</v>
       </c>
       <c r="S3">
-        <v>0.2834141137207118</v>
+        <v>0.3584582596351595</v>
       </c>
       <c r="T3">
-        <v>0.2834141137207118</v>
+        <v>0.3584582596351595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>4958.346483062232</v>
+        <v>5996.578989253771</v>
       </c>
       <c r="R4">
-        <v>44625.11834756009</v>
+        <v>53969.21090328395</v>
       </c>
       <c r="S4">
-        <v>0.09816415699889132</v>
+        <v>0.1210530492893661</v>
       </c>
       <c r="T4">
-        <v>0.09816415699889132</v>
+        <v>0.1210530492893661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>39.07814283711</v>
+        <v>40.29446175167957</v>
       </c>
       <c r="R5">
-        <v>351.70328553399</v>
+        <v>362.6501557651161</v>
       </c>
       <c r="S5">
-        <v>0.0007736597193825068</v>
+        <v>0.000813425033382499</v>
       </c>
       <c r="T5">
-        <v>0.0007736597193825068</v>
+        <v>0.0008134250333824992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>176.7154597117587</v>
+        <v>48.66790261741333</v>
       </c>
       <c r="R6">
-        <v>1590.439137405828</v>
+        <v>438.01112355672</v>
       </c>
       <c r="S6">
-        <v>0.003498570378357846</v>
+        <v>0.0009824598366691309</v>
       </c>
       <c r="T6">
-        <v>0.003498570378357846</v>
+        <v>0.0009824598366691313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>5766.526652439053</v>
+        <v>5766.526652439052</v>
       </c>
       <c r="R7">
-        <v>51898.73987195147</v>
+        <v>51898.73987195146</v>
       </c>
       <c r="S7">
-        <v>0.1141643145718047</v>
+        <v>0.1164089785754686</v>
       </c>
       <c r="T7">
-        <v>0.1141643145718047</v>
+        <v>0.1164089785754686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>1997.311355517544</v>
+        <v>1947.383318204557</v>
       </c>
       <c r="R8">
-        <v>17975.8021996579</v>
+        <v>17526.44986384101</v>
       </c>
       <c r="S8">
-        <v>0.03954229220334859</v>
+        <v>0.03931186251800563</v>
       </c>
       <c r="T8">
-        <v>0.03954229220334859</v>
+        <v>0.03931186251800563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>15.74138045974</v>
+        <v>13.08558809479089</v>
       </c>
       <c r="R9">
-        <v>141.67242413766</v>
+        <v>117.770292853118</v>
       </c>
       <c r="S9">
-        <v>0.0003116440829836625</v>
+        <v>0.0002641590052357813</v>
       </c>
       <c r="T9">
-        <v>0.0003116440829836625</v>
+        <v>0.0002641590052357814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>165.269883143998</v>
+        <v>44.96110455834667</v>
       </c>
       <c r="R10">
-        <v>1487.428948295982</v>
+        <v>404.64994102512</v>
       </c>
       <c r="S10">
-        <v>0.003271973592720026</v>
+        <v>0.0009076306367279552</v>
       </c>
       <c r="T10">
-        <v>0.003271973592720026</v>
+        <v>0.0009076306367279555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>5393.037980660258</v>
+        <v>5327.318290187394</v>
       </c>
       <c r="R11">
-        <v>48537.34182594232</v>
+        <v>47945.86461168654</v>
       </c>
       <c r="S11">
-        <v>0.1067700752343476</v>
+        <v>0.1075426713661029</v>
       </c>
       <c r="T11">
-        <v>0.1067700752343476</v>
+        <v>0.1075426713661029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>1867.948706168576</v>
+        <v>1799.060577425573</v>
       </c>
       <c r="R12">
-        <v>16811.53835551719</v>
+        <v>16191.54519683015</v>
       </c>
       <c r="S12">
-        <v>0.03698120143168433</v>
+        <v>0.03631766864806269</v>
       </c>
       <c r="T12">
-        <v>0.03698120143168434</v>
+        <v>0.0363176686480627</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>14.72183652381</v>
+        <v>12.08892232653645</v>
       </c>
       <c r="R13">
-        <v>132.49652871429</v>
+        <v>108.800300938828</v>
       </c>
       <c r="S13">
-        <v>0.0002914593961458661</v>
+        <v>0.0002440392952168288</v>
       </c>
       <c r="T13">
-        <v>0.0002914593961458662</v>
+        <v>0.0002440392952168289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>341.1997666012733</v>
+        <v>66.55878437833334</v>
       </c>
       <c r="R14">
-        <v>3070.79789941146</v>
+        <v>599.029059405</v>
       </c>
       <c r="S14">
-        <v>0.006754991320402263</v>
+        <v>0.001343623392675983</v>
       </c>
       <c r="T14">
-        <v>0.006754991320402264</v>
+        <v>0.001343623392675984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>11133.92994094283</v>
+        <v>7886.368292647056</v>
       </c>
       <c r="R15">
-        <v>100205.3694684855</v>
+        <v>70977.31463382349</v>
       </c>
       <c r="S15">
-        <v>0.2204268803059464</v>
+        <v>0.1592022603812476</v>
       </c>
       <c r="T15">
-        <v>0.2204268803059464</v>
+        <v>0.1592022603812476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>3856.381153319734</v>
+        <v>2663.263864014639</v>
       </c>
       <c r="R16">
-        <v>34707.43037987761</v>
+        <v>23969.37477613175</v>
       </c>
       <c r="S16">
-        <v>0.07634771113216951</v>
+        <v>0.05376335613670809</v>
       </c>
       <c r="T16">
-        <v>0.07634771113216952</v>
+        <v>0.0537633561367081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>30.3932397743</v>
+        <v>17.8960010525139</v>
       </c>
       <c r="R17">
-        <v>273.5391579687</v>
+        <v>161.064009472625</v>
       </c>
       <c r="S17">
-        <v>0.0006017180870883256</v>
+        <v>0.000361266899239511</v>
       </c>
       <c r="T17">
-        <v>0.0006017180870883257</v>
+        <v>0.0003612668992395111</v>
       </c>
     </row>
   </sheetData>
